--- a/training/output/CNN/W/W1_W0.xlsx
+++ b/training/output/CNN/W/W1_W0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,802 +447,1602 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.468312937062937</v>
+        <v>0.04645833333333334</v>
       </c>
       <c r="B2" t="n">
-        <v>3.101170854134993</v>
+        <v>3.228617668151855</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.6934003496503496</v>
+        <v>0.245625</v>
       </c>
       <c r="B3" t="n">
-        <v>2.425527908585288</v>
+        <v>2.925723195075989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.7565559440559441</v>
+        <v>0.2977083333333334</v>
       </c>
       <c r="B4" t="n">
-        <v>2.171946086666801</v>
+        <v>2.893493711948395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8020104895104896</v>
+        <v>0.2625</v>
       </c>
       <c r="B5" t="n">
-        <v>2.015255126086148</v>
+        <v>2.856001555919647</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.256875</v>
       </c>
       <c r="B6" t="n">
-        <v>1.819412692026658</v>
+        <v>2.807999968528748</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.2245833333333334</v>
       </c>
       <c r="B7" t="n">
-        <v>1.824118841778148</v>
+        <v>2.784391701221466</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.2391666666666667</v>
       </c>
       <c r="B8" t="n">
-        <v>1.732595075260509</v>
+        <v>2.763035953044891</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.8588286713286714</v>
+        <v>0.2829166666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.704785000194203</v>
+        <v>2.738504946231842</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.8190559440559441</v>
+        <v>0.2791666666666667</v>
       </c>
       <c r="B10" t="n">
-        <v>1.688096685843034</v>
+        <v>2.712580144405365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.8218968531468532</v>
+        <v>0.2391666666666667</v>
       </c>
       <c r="B11" t="n">
-        <v>1.648552829569036</v>
+        <v>2.665519952774048</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.3204166666666667</v>
       </c>
       <c r="B12" t="n">
-        <v>1.666184165261009</v>
+        <v>2.648592352867126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.8275786713286714</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B13" t="n">
-        <v>1.606364710764451</v>
+        <v>2.626308083534241</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.8389423076923077</v>
+        <v>0.3404166666666667</v>
       </c>
       <c r="B14" t="n">
-        <v>1.564158109101382</v>
+        <v>2.641339361667633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.8332604895104896</v>
+        <v>0.3479166666666667</v>
       </c>
       <c r="B15" t="n">
-        <v>1.568633778528734</v>
+        <v>2.587283968925476</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.8588286713286714</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B16" t="n">
-        <v>1.544705932790583</v>
+        <v>2.586209416389465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.8588286713286714</v>
+        <v>0.3554166666666667</v>
       </c>
       <c r="B17" t="n">
-        <v>1.517914820801128</v>
+        <v>2.530165553092957</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.8588286713286714</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B18" t="n">
-        <v>1.550420647317713</v>
+        <v>2.527336418628693</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.476190025156195</v>
+        <v>2.506192445755005</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.8758741258741259</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B20" t="n">
-        <v>1.541400627656416</v>
+        <v>2.517435729503632</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.8645104895104896</v>
+        <v>0.3460416666666667</v>
       </c>
       <c r="B21" t="n">
-        <v>1.508354056965221</v>
+        <v>2.448690354824066</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B22" t="n">
-        <v>1.50161472233859</v>
+        <v>2.422438859939575</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.8730332167832168</v>
+        <v>0.3279166666666667</v>
       </c>
       <c r="B23" t="n">
-        <v>1.475891221653331</v>
+        <v>2.420546054840088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.3654166666666667</v>
       </c>
       <c r="B24" t="n">
-        <v>1.474699275060134</v>
+        <v>2.375511407852173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.8758741258741259</v>
+        <v>0.3779166666666667</v>
       </c>
       <c r="B25" t="n">
-        <v>1.460166589780287</v>
+        <v>2.386946260929108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.8417832167832168</v>
+        <v>0.3479166666666667</v>
       </c>
       <c r="B26" t="n">
-        <v>1.485374835404483</v>
+        <v>2.369961500167847</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.3204166666666667</v>
       </c>
       <c r="B27" t="n">
-        <v>1.47102045471018</v>
+        <v>2.38915628194809</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.3829166666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>1.437537886879661</v>
+        <v>2.351945340633392</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.8758741258741259</v>
+        <v>0.378125</v>
       </c>
       <c r="B29" t="n">
-        <v>1.452346731315959</v>
+        <v>2.309363305568695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.8730332167832168</v>
+        <v>0.3529166666666667</v>
       </c>
       <c r="B30" t="n">
-        <v>1.434346795082092</v>
+        <v>2.320688128471375</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.8730332167832168</v>
+        <v>0.418125</v>
       </c>
       <c r="B31" t="n">
-        <v>1.467403281818737</v>
+        <v>2.363394916057587</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.8503059440559441</v>
+        <v>0.368125</v>
       </c>
       <c r="B32" t="n">
-        <v>1.502741255543449</v>
+        <v>2.386006593704224</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.8730332167832168</v>
+        <v>0.3510416666666666</v>
       </c>
       <c r="B33" t="n">
-        <v>1.45117569511587</v>
+        <v>2.331659913063049</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.8616695804195804</v>
+        <v>0.4120833333333333</v>
       </c>
       <c r="B34" t="n">
-        <v>1.509696982123635</v>
+        <v>2.283651769161224</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.878715034965035</v>
+        <v>0.43375</v>
       </c>
       <c r="B35" t="n">
-        <v>1.43586799773303</v>
+        <v>2.26910138130188</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.4110416666666667</v>
       </c>
       <c r="B36" t="n">
-        <v>1.450291205536235</v>
+        <v>2.26252818107605</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.45375</v>
       </c>
       <c r="B37" t="n">
-        <v>1.437187671661377</v>
+        <v>2.253464341163635</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.8673513986013986</v>
+        <v>0.4952083333333334</v>
       </c>
       <c r="B38" t="n">
-        <v>1.517289112914692</v>
+        <v>2.250465869903564</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.8730332167832168</v>
+        <v>0.4820833333333333</v>
       </c>
       <c r="B39" t="n">
-        <v>1.443088845773177</v>
+        <v>2.2479248046875</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.4322916666666667</v>
       </c>
       <c r="B40" t="n">
-        <v>1.426076482642781</v>
+        <v>2.264135718345642</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.4464583333333333</v>
       </c>
       <c r="B41" t="n">
-        <v>1.414256193421104</v>
+        <v>2.228570282459259</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.4902083333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1.43260730938478</v>
+        <v>2.170245707035065</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.4914583333333333</v>
       </c>
       <c r="B43" t="n">
-        <v>1.422853318127719</v>
+        <v>2.144076406955719</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.50375</v>
       </c>
       <c r="B44" t="n">
-        <v>1.422681217843836</v>
+        <v>2.147097170352936</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.4845833333333333</v>
       </c>
       <c r="B45" t="n">
-        <v>1.420680327848955</v>
+        <v>2.132895708084106</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.47625</v>
       </c>
       <c r="B46" t="n">
-        <v>1.412458094683561</v>
+        <v>2.243371665477753</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.5320833333333334</v>
       </c>
       <c r="B47" t="n">
-        <v>1.425445415756919</v>
+        <v>2.16743403673172</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.4895833333333333</v>
       </c>
       <c r="B48" t="n">
-        <v>1.409172995523973</v>
+        <v>2.145784139633179</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.5335416666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>1.408044603737918</v>
+        <v>2.118605613708496</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.5064583333333333</v>
       </c>
       <c r="B50" t="n">
-        <v>1.411700080741536</v>
+        <v>2.089531451463699</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>1.407587522810156</v>
+        <v>2.071731925010681</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.4977083333333333</v>
       </c>
       <c r="B52" t="n">
-        <v>1.410011329434135</v>
+        <v>2.102231979370117</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.4845833333333333</v>
       </c>
       <c r="B53" t="n">
-        <v>1.407807252623818</v>
+        <v>2.098678350448608</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.4975</v>
       </c>
       <c r="B54" t="n">
-        <v>1.408222247253765</v>
+        <v>2.072097629308701</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.5308333333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.40477641062303</v>
+        <v>2.050532341003418</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.5460416666666666</v>
       </c>
       <c r="B56" t="n">
-        <v>1.406547898595983</v>
+        <v>2.067287266254425</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.4952083333333334</v>
       </c>
       <c r="B57" t="n">
-        <v>1.405595627698031</v>
+        <v>2.005467176437378</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.5154166666666666</v>
       </c>
       <c r="B58" t="n">
-        <v>1.404982171275399</v>
+        <v>2.015077948570251</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.5564583333333334</v>
       </c>
       <c r="B59" t="n">
-        <v>1.404286856001074</v>
+        <v>2.016428142786026</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.5335416666666666</v>
       </c>
       <c r="B60" t="n">
-        <v>1.405238151550293</v>
+        <v>2.002011924982071</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.5922916666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>1.40224502845244</v>
+        <v>2.055780291557312</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.878715034965035</v>
+        <v>0.5325</v>
       </c>
       <c r="B62" t="n">
-        <v>1.413243060762232</v>
+        <v>2.026710867881775</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.5402083333333334</v>
       </c>
       <c r="B63" t="n">
-        <v>1.403119878335433</v>
+        <v>2.005504310131073</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>1.407074603167447</v>
+        <v>1.989826261997223</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.5897916666666667</v>
       </c>
       <c r="B65" t="n">
-        <v>1.408206706697291</v>
+        <v>2.002147376537323</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.635</v>
       </c>
       <c r="B66" t="n">
-        <v>1.402121240442449</v>
+        <v>1.966152846813202</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6395833333333334</v>
       </c>
       <c r="B67" t="n">
-        <v>1.401195368983529</v>
+        <v>2.011235952377319</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.5897916666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.404142163016579</v>
+        <v>1.971404492855072</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6174999999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>1.399066930467432</v>
+        <v>1.958108931779861</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.608125</v>
       </c>
       <c r="B70" t="n">
-        <v>1.399349711158059</v>
+        <v>1.892511576414108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.8361013986013986</v>
+        <v>0.6047916666666666</v>
       </c>
       <c r="B71" t="n">
-        <v>1.471882684664293</v>
+        <v>1.910800278186798</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.8815559440559441</v>
+        <v>0.6497916666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.406795398755507</v>
+        <v>1.942089706659317</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.878715034965035</v>
+        <v>0.5860416666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.407779016278007</v>
+        <v>1.940940797328949</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6174999999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>1.40338029644706</v>
+        <v>1.90983247756958</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6595833333333333</v>
       </c>
       <c r="B75" t="n">
-        <v>1.404772021553733</v>
+        <v>1.929549962282181</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6320833333333333</v>
       </c>
       <c r="B76" t="n">
-        <v>1.403363184495406</v>
+        <v>1.931190460920334</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.5922916666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.404287863861431</v>
+        <v>1.863164782524109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.6095833333333334</v>
       </c>
       <c r="B78" t="n">
-        <v>1.402576332742518</v>
+        <v>1.896926671266556</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.6297916666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>1.406371344219554</v>
+        <v>1.944415241479874</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.6397916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.402256147427992</v>
+        <v>1.867556095123291</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.6297916666666666</v>
       </c>
       <c r="B81" t="n">
-        <v>1.399272095073353</v>
+        <v>1.847980946302414</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.64</v>
       </c>
       <c r="B82" t="n">
-        <v>1.401801353151148</v>
+        <v>1.872784465551376</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.655</v>
       </c>
       <c r="B83" t="n">
-        <v>1.401579222895882</v>
+        <v>1.827511012554169</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.9014423076923077</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>1.399619422175667</v>
+        <v>1.802618503570557</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="B85" t="n">
-        <v>1.398819506168365</v>
+        <v>1.845588207244873</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.6224999999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>1.401808473196897</v>
+        <v>1.78453853726387</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.8872377622377623</v>
+        <v>0.6320833333333333</v>
       </c>
       <c r="B87" t="n">
-        <v>1.406114616177299</v>
+        <v>1.831228733062744</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>0.8843968531468532</v>
+        <v>0.6672916666666666</v>
       </c>
       <c r="B88" t="n">
-        <v>1.413181781768799</v>
+        <v>1.780835747718811</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.6347916666666666</v>
       </c>
       <c r="B89" t="n">
-        <v>1.412790471857244</v>
+        <v>1.76779717206955</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.8701923076923077</v>
+        <v>0.6141666666666666</v>
       </c>
       <c r="B90" t="n">
-        <v>1.399854020638899</v>
+        <v>1.811838507652283</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6570833333333334</v>
       </c>
       <c r="B91" t="n">
-        <v>1.401113233783028</v>
+        <v>1.76167818903923</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6652083333333333</v>
       </c>
       <c r="B92" t="n">
-        <v>1.402821681716225</v>
+        <v>1.728715360164642</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6656249999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>1.42434686422348</v>
+        <v>1.699131071567535</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.6679166666666666</v>
       </c>
       <c r="B94" t="n">
-        <v>1.400185091929002</v>
+        <v>1.71718955039978</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6627083333333333</v>
       </c>
       <c r="B95" t="n">
-        <v>1.398461347276514</v>
+        <v>1.674358189105988</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.8929195804195804</v>
+        <v>0.7004166666666666</v>
       </c>
       <c r="B96" t="n">
-        <v>1.398035499182614</v>
+        <v>1.689256250858307</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.71875</v>
       </c>
       <c r="B97" t="n">
-        <v>1.398711865598505</v>
+        <v>1.652298629283905</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.8957604895104896</v>
+        <v>0.6727083333333334</v>
       </c>
       <c r="B98" t="n">
-        <v>1.39757237109271</v>
+        <v>1.635059416294098</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.9042832167832168</v>
+        <v>0.7152083333333333</v>
       </c>
       <c r="B99" t="n">
-        <v>1.402772437442433</v>
+        <v>1.637822180986404</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.8986013986013986</v>
+        <v>0.670625</v>
       </c>
       <c r="B100" t="n">
-        <v>1.397554067048159</v>
+        <v>1.718025982379913</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.8900786713286714</v>
+        <v>0.6747916666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>1.412301074374806</v>
+        <v>1.657279402017593</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.6758333333333334</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1.626496344804764</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.6370833333333334</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1.612839490175247</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.7079166666666666</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.658948838710785</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.6379166666666666</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1.735630720853806</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.683125</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1.627182602882385</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.7304166666666666</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1.570935368537903</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.730625</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1.611379206180573</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.7227083333333334</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1.584193140268326</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.7739583333333334</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1.563865303993225</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.6897916666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1.534238278865814</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1.546580940485001</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.548385411500931</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.6870833333333334</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.516689568758011</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.7054166666666667</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1.569171011447906</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.6947916666666666</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1.569182693958282</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.7172916666666665</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1.519691348075867</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.7327083333333334</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1.486377358436584</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.7527083333333334</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1.508326798677444</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.7279166666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1.539997428655624</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.7554166666666666</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1.487748384475708</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1.523909658193588</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.778125</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1.475462466478348</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.7958333333333334</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1.415979593992233</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.7454166666666666</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1.479903101921082</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.7852083333333334</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.450539171695709</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.785625</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1.400093793869019</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.7702083333333334</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.478408545255661</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.7802083333333334</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1.45829313993454</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.7727083333333333</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.484336853027344</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.8441666666666666</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1.387066721916199</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.7952083333333333</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1.406135380268097</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.8287500000000001</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.339958250522614</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.803125</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1.349773943424225</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.82125</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1.296942532062531</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.8085416666666666</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.43790864944458</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.8564583333333333</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1.333662331104279</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.8210416666666666</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1.322955518960953</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.843125</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1.268100559711456</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.8408333333333333</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1.249454855918884</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.8539583333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1.235496431589127</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.8262499999999999</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1.368288904428482</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.8439583333333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1.288948506116867</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.8616666666666666</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1.219188541173935</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.8539583333333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1.178741335868835</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.8564583333333333</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1.187226742506027</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.8514583333333334</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1.203442305326462</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.8814583333333333</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1.17862731218338</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.8664583333333333</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1.15340867638588</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.8997916666666667</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1.109837174415588</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.8922916666666666</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1.076774895191193</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.8795833333333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1.090386033058167</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.8872916666666666</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.120855867862701</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.8595833333333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1.094712674617767</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.8795833333333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1.054234147071838</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.881875</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1.05805915594101</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.8895833333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1.04789873957634</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.899375</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1.014641672372818</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.8970833333333333</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.00992888212204</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.901875</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1.036635667085648</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.906875</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1.005473211407661</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9834632724523544</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1.007413148880005</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9901301115751266</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9070833333333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9566677063703537</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9195833333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.984954908490181</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9045833333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9470419436693192</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9047916666666667</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9553132802248001</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.909375</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9403631538152695</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9612993896007538</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.911875</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9458721280097961</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9047916666666667</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9133628308773041</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9170833333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9329663664102554</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9045833333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9254020601511002</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9225</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9317094534635544</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9147916666666667</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9008184671401978</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.925</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9297218173742294</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9157540947198868</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9147916666666667</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.8992254883050919</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9175</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9026379436254501</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.897124171257019</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9220833333333334</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.87405925989151</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9243750000000001</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.8776227980852127</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9275</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.8783069550991058</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9170833333333334</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.8698922544717789</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9195833333333334</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.8546945005655289</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9145833333333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.8535251170396805</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.914375</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.8576696515083313</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9197916666666667</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.8319505304098129</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9122916666666666</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.8855350464582443</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9222916666666666</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.8324553072452545</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.8244144469499588</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.8207811713218689</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9195833333333334</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.8349024802446365</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9270833333333334</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.8362403213977814</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9295833333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.8208490908145905</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9197916666666667</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.8112358450889587</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9120833333333334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.8292074501514435</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9145833333333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.8101372271776199</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9322916666666666</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.851018026471138</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9297916666666667</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.8186990916728973</v>
       </c>
     </row>
   </sheetData>
